--- a/Team05_APITesters/src/test/resources/Apibootcamp_data.xlsx
+++ b/Team05_APITesters/src/test/resources/Apibootcamp_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\git\Team05_APITesters\Team05_APITesters\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gowthami/git/Team05_APITesters/Team05_APITesters/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFA4A8E-696B-49FE-8D05-2A02576BAEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6908FEE-BC08-D648-A2BC-2660F2148DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8916" activeTab="1" xr2:uid="{03CC4A74-AFFF-4AEE-BFA4-586DA0F9786D}"/>
+    <workbookView xWindow="1460" yWindow="1460" windowWidth="17280" windowHeight="8920" activeTab="2" xr2:uid="{03CC4A74-AFFF-4AEE-BFA4-586DA0F9786D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Postdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="UserLogin" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="UserControllerTestData" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId3"/>
+    <sheet name="UserLogin" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,49 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>user_first_name</t>
-  </si>
-  <si>
-    <t>user_last_name</t>
-  </si>
-  <si>
-    <t>user_contact_number</t>
-  </si>
-  <si>
-    <t>user_email_id</t>
-  </si>
-  <si>
-    <t>plotNumber</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>Vino</t>
-  </si>
-  <si>
-    <t>Teamsix</t>
-  </si>
-  <si>
-    <t>svs@gmail.com</t>
-  </si>
-  <si>
-    <t>A-5</t>
-  </si>
-  <si>
-    <t>Newyork</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>0,0</t>
   </si>
@@ -128,30 +86,52 @@
   </si>
   <si>
     <t>numpyninja@gmail.com</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>U$$</t>
+  </si>
+  <si>
+    <t>UC_invalid</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>sdet123y@gmail.com</t>
+  </si>
+  <si>
+    <t>updatepassword</t>
+  </si>
+  <si>
+    <t>updatestatus</t>
+  </si>
+  <si>
+    <t>updateroleId</t>
+  </si>
+  <si>
+    <t>updateloginStatus</t>
+  </si>
+  <si>
+    <t>updateLoginEmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,6 +147,12 @@
       <color rgb="FF0451A5"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,23 +172,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,190 +515,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4DF82E-6113-4CCE-86F7-300B44027617}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F56B0-845D-4222-9C6A-8B7131F86E5D}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>3402203465</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>6074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{F8955CD0-486C-4C12-893A-5C3F29E86046}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F56B0-845D-4222-9C6A-8B7131F86E5D}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF396B9-0607-8345-8047-6C16C918A952}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -726,33 +645,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A19F79E-EA8E-434A-90C0-1E1ADA80410B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA68557A-0A86-234B-82BD-23D3F2D98186}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169899C3-DCBC-9B40-BA99-5C208E25BEF2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
